--- a/data/inputs/groundnut_inputs.xlsx
+++ b/data/inputs/groundnut_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\OneDrive\Documents\academique\M2_ens_ulm\S2_stage\land_use_repository_v3\data\Senegal\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\OneDrive\Documents\academique\M2_ens_ulm\S2_stage\land_use_repository_v3\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271DF9D4-DE29-4841-82A6-40D25F0D981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A59C37-C676-41F2-BF87-16E5752A39FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B0704F27-65BB-4DBB-BD79-D2072EA89B87}"/>
   </bookViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H2" sqref="H2:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,7 +1026,7 @@
         <v>0.928925</v>
       </c>
       <c r="H2">
-        <v>203.0575</v>
+        <v>281.19374999999997</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1052,7 +1052,7 @@
         <v>0.90946749999999987</v>
       </c>
       <c r="H3">
-        <v>245.36750000000001</v>
+        <v>464.65875</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1078,7 +1078,7 @@
         <v>1.1531525</v>
       </c>
       <c r="H4">
-        <v>239.1275</v>
+        <v>352.24874999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1104,7 +1104,7 @@
         <v>0.94691499999999984</v>
       </c>
       <c r="H5">
-        <v>154.50749999999999</v>
+        <v>333.11624999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1130,7 +1130,7 @@
         <v>1.1377975</v>
       </c>
       <c r="H6">
-        <v>192.86500000000001</v>
+        <v>533.88875000000007</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1156,7 +1156,7 @@
         <v>1.2841850000000001</v>
       </c>
       <c r="H7">
-        <v>169.47499999999999</v>
+        <v>232.21875</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>0.8348000000000001</v>
       </c>
       <c r="H8">
-        <v>182.28750000000002</v>
+        <v>366.93874999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1208,7 +1208,7 @@
         <v>1.1018849999999998</v>
       </c>
       <c r="H9">
-        <v>207.39249999999998</v>
+        <v>418.11124999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1234,7 +1234,7 @@
         <v>0.94430250000000004</v>
       </c>
       <c r="H10">
-        <v>200.84</v>
+        <v>295.85874999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1260,7 +1260,7 @@
         <v>0.98182750000000008</v>
       </c>
       <c r="H11">
-        <v>176.01250000000002</v>
+        <v>208.60749999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1286,7 +1286,7 @@
         <v>1.1283624999999999</v>
       </c>
       <c r="H12">
-        <v>201.405</v>
+        <v>312.0675</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1312,7 +1312,7 @@
         <v>1.0901725</v>
       </c>
       <c r="H13">
-        <v>237.47499999999999</v>
+        <v>323.69875000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1338,7 +1338,7 @@
         <v>1.1666075</v>
       </c>
       <c r="H14">
-        <v>209.20999999999998</v>
+        <v>256.46375</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1364,7 +1364,7 @@
         <v>1.2276150000000001</v>
       </c>
       <c r="H15">
-        <v>229.42750000000001</v>
+        <v>385.46499999999997</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1390,7 +1390,7 @@
         <v>0.97797000000000001</v>
       </c>
       <c r="H16">
-        <v>208.60999999999999</v>
+        <v>155.04249999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1416,7 +1416,7 @@
         <v>1.1348825</v>
       </c>
       <c r="H17">
-        <v>222.965</v>
+        <v>356.97750000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1442,7 +1442,7 @@
         <v>1.168825</v>
       </c>
       <c r="H18">
-        <v>214.7525</v>
+        <v>384.39125000000007</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
         <v>0.85336000000000001</v>
       </c>
       <c r="H19">
-        <v>91.85</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1494,7 +1494,7 @@
         <v>1.0564175</v>
       </c>
       <c r="H20">
-        <v>180.04500000000002</v>
+        <v>338.26125000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1520,7 +1520,7 @@
         <v>0.94903749999999998</v>
       </c>
       <c r="H21">
-        <v>235.81000000000003</v>
+        <v>315.29125000000005</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1546,7 +1546,7 @@
         <v>0.96819750000000004</v>
       </c>
       <c r="H22">
-        <v>209.97750000000002</v>
+        <v>265.30250000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>1.2213600000000002</v>
       </c>
       <c r="H23">
-        <v>215.12750000000003</v>
+        <v>394.63124999999997</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1598,7 +1598,7 @@
         <v>1.0617700000000001</v>
       </c>
       <c r="H24">
-        <v>171.92500000000001</v>
+        <v>212.32374999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1624,7 +1624,7 @@
         <v>1.1943225</v>
       </c>
       <c r="H25">
-        <v>175.8475</v>
+        <v>478.08250000000004</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1650,7 +1650,7 @@
         <v>0.83431</v>
       </c>
       <c r="H26">
-        <v>177.24</v>
+        <v>428.86749999999995</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1676,7 +1676,7 @@
         <v>1.1487775</v>
       </c>
       <c r="H27">
-        <v>243.74499999999998</v>
+        <v>225.17749999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1702,7 +1702,7 @@
         <v>1.0878350000000001</v>
       </c>
       <c r="H28">
-        <v>215.1575</v>
+        <v>397.01749999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1728,7 +1728,7 @@
         <v>1.1260300000000001</v>
       </c>
       <c r="H29">
-        <v>152.09</v>
+        <v>178.06</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1754,7 +1754,7 @@
         <v>1.0058975000000001</v>
       </c>
       <c r="H30">
-        <v>192.495</v>
+        <v>326.29500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1780,7 +1780,7 @@
         <v>1.1360450000000002</v>
       </c>
       <c r="H31">
-        <v>202.965</v>
+        <v>354.88750000000005</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1806,7 +1806,7 @@
         <v>1.23132</v>
       </c>
       <c r="H32">
-        <v>228.57250000000002</v>
+        <v>230.05500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1832,7 +1832,7 @@
         <v>1.3403375</v>
       </c>
       <c r="H33">
-        <v>256.52249999999998</v>
+        <v>312.23500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1858,7 +1858,7 @@
         <v>1.2149375</v>
       </c>
       <c r="H34">
-        <v>212.46250000000001</v>
+        <v>443.29125000000005</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
         <v>0.92938999999999994</v>
       </c>
       <c r="H35">
-        <v>178.95</v>
+        <v>429.13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1910,7 +1910,7 @@
         <v>1.1623424999999998</v>
       </c>
       <c r="H36">
-        <v>235.44749999999996</v>
+        <v>456.58375000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1936,7 +1936,7 @@
         <v>1.0742575000000001</v>
       </c>
       <c r="H37">
-        <v>233.61000000000004</v>
+        <v>278.85124999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1962,7 +1962,7 @@
         <v>1.202005</v>
       </c>
       <c r="H38">
-        <v>291.26</v>
+        <v>460.06125000000003</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1988,7 +1988,7 @@
         <v>1.2179625000000001</v>
       </c>
       <c r="H39">
-        <v>189.02</v>
+        <v>312.16624999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2014,7 +2014,7 @@
         <v>1.1912799999999999</v>
       </c>
       <c r="H40">
-        <v>268.22000000000003</v>
+        <v>352.29624999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2040,7 +2040,7 @@
         <v>1.282095</v>
       </c>
       <c r="H41">
-        <v>238.64499999999998</v>
+        <v>333.99874999999997</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2066,7 +2066,7 @@
         <v>0.94370500000000002</v>
       </c>
       <c r="H42">
-        <v>104.985</v>
+        <v>122.26875000000001</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2092,7 +2092,7 @@
         <v>1.0493525000000001</v>
       </c>
       <c r="H43">
-        <v>266.54500000000002</v>
+        <v>327.25124999999997</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2118,7 +2118,7 @@
         <v>0.95190000000000019</v>
       </c>
       <c r="H44">
-        <v>243.47499999999999</v>
+        <v>448.33124999999995</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -2144,7 +2144,7 @@
         <v>1.1255525</v>
       </c>
       <c r="H45">
-        <v>228.01749999999998</v>
+        <v>414.77249999999998</v>
       </c>
     </row>
   </sheetData>
